--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>307.64070888657</v>
+        <v>336.2049224236198</v>
       </c>
       <c r="R2">
-        <v>2768.76637997913</v>
+        <v>3025.844301812579</v>
       </c>
       <c r="S2">
-        <v>0.00626845186826966</v>
+        <v>0.007135332198115816</v>
       </c>
       <c r="T2">
-        <v>0.006268451868269661</v>
+        <v>0.007135332198115815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>12215.48319598038</v>
+        <v>12347.24034951604</v>
       </c>
       <c r="R3">
-        <v>109939.3487638234</v>
+        <v>111125.1631456443</v>
       </c>
       <c r="S3">
-        <v>0.2489012872801978</v>
+        <v>0.2620475065881636</v>
       </c>
       <c r="T3">
-        <v>0.2489012872801979</v>
+        <v>0.2620475065881636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>35.745718954267</v>
+        <v>85.707944543153</v>
       </c>
       <c r="R4">
-        <v>321.711470588403</v>
+        <v>771.371500888377</v>
       </c>
       <c r="S4">
-        <v>0.0007283506775565713</v>
+        <v>0.0018189937610804</v>
       </c>
       <c r="T4">
-        <v>0.0007283506775565714</v>
+        <v>0.0018189937610804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>2615.961182091441</v>
+        <v>3155.238567618208</v>
       </c>
       <c r="R5">
-        <v>23543.65063882296</v>
+        <v>28397.14710856387</v>
       </c>
       <c r="S5">
-        <v>0.05330252559406273</v>
+        <v>0.06696414550378202</v>
       </c>
       <c r="T5">
-        <v>0.05330252559406273</v>
+        <v>0.06696414550378202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>18.33333782618233</v>
+        <v>42.61372660935611</v>
       </c>
       <c r="R6">
-        <v>165.000040435641</v>
+        <v>383.523539484205</v>
       </c>
       <c r="S6">
-        <v>0.0003735579929069925</v>
+        <v>0.0009043981074563876</v>
       </c>
       <c r="T6">
-        <v>0.0003735579929069926</v>
+        <v>0.0009043981074563874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>125.65847324018</v>
+        <v>135.8603695218958</v>
       </c>
       <c r="R7">
-        <v>1130.92625916162</v>
+        <v>1222.743325697062</v>
       </c>
       <c r="S7">
-        <v>0.002560402666464879</v>
+        <v>0.002883386900195458</v>
       </c>
       <c r="T7">
-        <v>0.00256040266646488</v>
+        <v>0.002883386900195457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>4989.518369832942</v>
@@ -948,10 +948,10 @@
         <v>44905.66532849648</v>
       </c>
       <c r="S8">
-        <v>0.1016658551475288</v>
+        <v>0.1058933665239464</v>
       </c>
       <c r="T8">
-        <v>0.1016658551475288</v>
+        <v>0.1058933665239463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>14.60064399449133</v>
+        <v>34.63457028723401</v>
       </c>
       <c r="R9">
-        <v>131.405795950422</v>
+        <v>311.711132585106</v>
       </c>
       <c r="S9">
-        <v>0.0002975010506784229</v>
+        <v>0.0007350551644423045</v>
       </c>
       <c r="T9">
-        <v>0.0002975010506784229</v>
+        <v>0.0007350551644423045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>1068.511671900965</v>
+        <v>1275.031533257024</v>
       </c>
       <c r="R10">
-        <v>9616.605047108684</v>
+        <v>11475.28379931322</v>
       </c>
       <c r="S10">
-        <v>0.0217718715128339</v>
+        <v>0.02706020330481236</v>
       </c>
       <c r="T10">
-        <v>0.02177187151283391</v>
+        <v>0.02706020330481235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>7.488408309070445</v>
+        <v>17.22020189983222</v>
       </c>
       <c r="R11">
-        <v>67.39567478163399</v>
+        <v>154.98181709849</v>
       </c>
       <c r="S11">
-        <v>0.0001525829504984861</v>
+        <v>0.0003654671686189915</v>
       </c>
       <c r="T11">
-        <v>0.0001525829504984861</v>
+        <v>0.0003654671686189914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>255.81447568283</v>
+        <v>253.288690416671</v>
       </c>
       <c r="R12">
-        <v>2302.33028114547</v>
+        <v>2279.598213750039</v>
       </c>
       <c r="S12">
-        <v>0.005212446473121693</v>
+        <v>0.005375587409964974</v>
       </c>
       <c r="T12">
-        <v>0.005212446473121695</v>
+        <v>0.005375587409964974</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>10157.62003767948</v>
+        <v>9302.1134724739</v>
       </c>
       <c r="R13">
-        <v>91418.5803391153</v>
+        <v>83719.0212522651</v>
       </c>
       <c r="S13">
-        <v>0.206970503132737</v>
+        <v>0.1974202795491459</v>
       </c>
       <c r="T13">
-        <v>0.206970503132737</v>
+        <v>0.1974202795491459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>29.72386972220634</v>
+        <v>64.57030097937302</v>
       </c>
       <c r="R14">
-        <v>267.514827499857</v>
+        <v>581.1327088143571</v>
       </c>
       <c r="S14">
-        <v>0.0006056501669324497</v>
+        <v>0.001370386085661252</v>
       </c>
       <c r="T14">
-        <v>0.0006056501669324499</v>
+        <v>0.001370386085661253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>2175.267183024529</v>
+        <v>2377.080736900128</v>
       </c>
       <c r="R15">
-        <v>19577.40464722076</v>
+        <v>21393.72663210115</v>
       </c>
       <c r="S15">
-        <v>0.04432299511584906</v>
+        <v>0.05044917426328779</v>
       </c>
       <c r="T15">
-        <v>0.04432299511584907</v>
+        <v>0.0504491742632878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>15.24483941184211</v>
+        <v>32.104155194545</v>
       </c>
       <c r="R16">
-        <v>137.203554706579</v>
+        <v>288.937396750905</v>
       </c>
       <c r="S16">
-        <v>0.0003106271027605357</v>
+        <v>0.0006813517500029639</v>
       </c>
       <c r="T16">
-        <v>0.0003106271027605358</v>
+        <v>0.0006813517500029639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>53.10890883656002</v>
+        <v>60.294012117339</v>
       </c>
       <c r="R17">
-        <v>477.9801795290401</v>
+        <v>542.6461090560509</v>
       </c>
       <c r="S17">
-        <v>0.001082141047012881</v>
+        <v>0.001279629705933804</v>
       </c>
       <c r="T17">
-        <v>0.001082141047012881</v>
+        <v>0.001279629705933804</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>2108.794332836665</v>
+        <v>2214.318142288791</v>
       </c>
       <c r="R18">
-        <v>18979.14899552998</v>
+        <v>19928.86328059912</v>
       </c>
       <c r="S18">
-        <v>0.0429685519296485</v>
+        <v>0.04699483702870139</v>
       </c>
       <c r="T18">
-        <v>0.04296855192964851</v>
+        <v>0.04699483702870139</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>6.170887253869336</v>
+        <v>15.370613284257</v>
       </c>
       <c r="R19">
-        <v>55.53798528482401</v>
+        <v>138.335519558313</v>
       </c>
       <c r="S19">
-        <v>0.000125737292295933</v>
+        <v>0.0003262130461426004</v>
       </c>
       <c r="T19">
-        <v>0.000125737292295933</v>
+        <v>0.0003262130461426004</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>451.6009745345477</v>
+        <v>565.851300027552</v>
       </c>
       <c r="R20">
-        <v>4064.408770810929</v>
+        <v>5092.661700247968</v>
       </c>
       <c r="S20">
-        <v>0.009201769761807569</v>
+        <v>0.01200915492648548</v>
       </c>
       <c r="T20">
-        <v>0.009201769761807569</v>
+        <v>0.01200915492648548</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>3.164937341369779</v>
+        <v>7.642221684405</v>
       </c>
       <c r="R21">
-        <v>28.48443607232801</v>
+        <v>68.779995159645</v>
       </c>
       <c r="S21">
-        <v>6.448840097355491E-05</v>
+        <v>0.0001621921239486378</v>
       </c>
       <c r="T21">
-        <v>6.448840097355491E-05</v>
+        <v>0.0001621921239486377</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>251.53187189404</v>
+        <v>206.4863025186549</v>
       </c>
       <c r="R22">
-        <v>2263.78684704636</v>
+        <v>1858.376722667894</v>
       </c>
       <c r="S22">
-        <v>0.00512518462855613</v>
+        <v>0.004382292657139669</v>
       </c>
       <c r="T22">
-        <v>0.005125184628556131</v>
+        <v>0.004382292657139668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>9987.570778573478</v>
+        <v>7583.279827379454</v>
       </c>
       <c r="R23">
-        <v>89888.13700716129</v>
+        <v>68249.51844641508</v>
       </c>
       <c r="S23">
-        <v>0.2035055988949369</v>
+        <v>0.160941191251938</v>
       </c>
       <c r="T23">
-        <v>0.203505598894937</v>
+        <v>0.160941191251938</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>29.22626083299067</v>
+        <v>52.639076303858</v>
       </c>
       <c r="R24">
-        <v>263.036347496916</v>
+        <v>473.7516867347221</v>
       </c>
       <c r="S24">
-        <v>0.0005955109451676812</v>
+        <v>0.001117167747938975</v>
       </c>
       <c r="T24">
-        <v>0.0005955109451676813</v>
+        <v>0.001117167747938975</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>2138.850919031706</v>
+        <v>1937.846539233088</v>
       </c>
       <c r="R25">
-        <v>19249.65827128535</v>
+        <v>17440.61885309779</v>
       </c>
       <c r="S25">
-        <v>0.04358098148934499</v>
+        <v>0.04112723486235827</v>
       </c>
       <c r="T25">
-        <v>0.04358098148934499</v>
+        <v>0.04112723486235827</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>14.98962474171689</v>
+        <v>26.17198695568111</v>
       </c>
       <c r="R26">
-        <v>134.906622675452</v>
+        <v>235.54788260113</v>
       </c>
       <c r="S26">
-        <v>0.0003054268778567954</v>
+        <v>0.0005554523707366722</v>
       </c>
       <c r="T26">
-        <v>0.0003054268778567954</v>
+        <v>0.0005554523707366721</v>
       </c>
     </row>
   </sheetData>
